--- a/docs/Official/Logboek GDC.xlsx
+++ b/docs/Official/Logboek GDC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\GDC-Ian-2025-2026\docs\Official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C265ADC-5556-4BA9-A492-01D20CD6990C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF09E4E-A485-4BA3-B3B3-D94350059A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{436E9E8A-65C9-4475-9C60-C188DFBA05A4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Datum:</t>
   </si>
@@ -138,8 +138,44 @@
     <t>https://frontegg.com/guides/api-authentication-api-authorization</t>
   </si>
   <si>
+    <t>sessions vs token cookies</t>
+  </si>
+  <si>
+    <t>sessie -&gt; telkens controle in data base maar kan gevoelig zijn voor CSRF, op de server
+token met info, -&gt; tokens kunnen gestolen worden, moeilijk te invalideren, op de client</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/computer-networks/session-vs-token-based-authentication/</t>
+  </si>
+  <si>
+    <t>https://www.authgear.com/post/session-vs-token-authentication</t>
+  </si>
+  <si>
+    <t>XSS &amp; CSRF</t>
+  </si>
+  <si>
+    <t>token storage at risk, XSS &amp; CSRF</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vTroMvQy6K0</t>
+  </si>
+  <si>
+    <t>HSTS (HTTP Strict Transport Security)</t>
+  </si>
+  <si>
+    <t>token in local storage -&gt; elke JS script kan aan die storage &amp; token
+XSS attack -&gt; JS invoegen bij de user/client om die te manipuleren
+kan voorkomen worden door -&gt; token in HTTPonly cookie te bewaren ipv local storage -&gt; JS kan het niet zien
+cookies zijn gevoelig voor CSRF -&gt;  samesite attribute gebruiken -&gt; brower lever cookie enkel aan voor die ene website
+HTTPS gebruiken -&gt; data end-to-end encrypted, tokens niet leesbaar | HTTP -&gt; tokens leesbaar bij man-in-the-middle
+HSTS gebruiken &amp; toepassen om risico's te voorkomen</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=J6NLw0N25UM</t>
+  </si>
+  <si>
     <t>Basic auth, telkens versturen van user &amp; pass in base64
-Bearer  Tokens,  inloggen -&gt; random token aanmaken -&gt; store in DB, request -&gt; check token in DB
+ token/session,  inloggen -&gt; random token aanmaken -&gt; store in DB, request -&gt; check token in DB
 JWT Token, bevat user info -&gt; base64 format, geen encryptie dus geen gevoelige data opslaan</t>
   </si>
 </sst>
@@ -211,7 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -257,6 +293,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -275,10 +314,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -598,26 +633,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B59746C-283F-4A2C-85E0-EFA8BF3CE917}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="34" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="7" customWidth="1"/>
     <col min="4" max="4" width="58.140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="75.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="88.5703125" style="13" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" style="16" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" style="13" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" style="13" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -645,8 +681,11 @@
       <c r="I1" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="J1" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -675,7 +714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -689,7 +728,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -709,7 +748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -723,7 +762,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>24</v>
@@ -737,8 +776,11 @@
       <c r="I5" s="11" t="s">
         <v>29</v>
       </c>
+      <c r="J5" s="15" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -748,11 +790,48 @@
       <c r="C6" s="7">
         <v>0.74652777777777779</v>
       </c>
+      <c r="D6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="F6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>27</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45973</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -770,8 +849,12 @@
     <hyperlink ref="G6" r:id="rId11" xr:uid="{3CB41CD8-A1FC-459B-9FDB-E7195AE599A9}"/>
     <hyperlink ref="H5" r:id="rId12" xr:uid="{0EAE5F66-0189-4104-8A7C-938D60E4457C}"/>
     <hyperlink ref="I5" r:id="rId13" xr:uid="{E15174D4-C8AB-4BE7-9EBD-DA8F759E7F93}"/>
+    <hyperlink ref="H6" r:id="rId14" xr:uid="{A586F198-85D8-4FDB-95F0-FDEA587F813B}"/>
+    <hyperlink ref="I6" r:id="rId15" xr:uid="{71631EA3-09D0-4D5A-82FA-58219DE802F9}"/>
+    <hyperlink ref="F7" r:id="rId16" xr:uid="{A8179F7F-A0B4-4264-A2DC-15B44AEF929A}"/>
+    <hyperlink ref="J5" r:id="rId17" xr:uid="{F2854C7E-F7A3-4D1B-ACAA-14B7C586B7EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/docs/Official/Logboek GDC.xlsx
+++ b/docs/Official/Logboek GDC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\GDC-Ian-2025-2026\docs\Official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GDC-Ian-2025-2026\docs\Official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF09E4E-A485-4BA3-B3B3-D94350059A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B4392E-FA59-4016-9BC5-BDCD0415DA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{436E9E8A-65C9-4475-9C60-C188DFBA05A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{436E9E8A-65C9-4475-9C60-C188DFBA05A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Datum:</t>
   </si>
@@ -96,19 +96,6 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=gLKkvDRj5fs</t>
-  </si>
-  <si>
-    <t>XSS - Cross-Site Scripting
-Injection Flaws (SQL, cmd, query)
-BOLA (Broken Object Level Authorization)
-DDoS attacks
-Lack of  Rate Limiting
-Broken Authentication
-Misconfigured CORS (verkeerd ingestelde config ivm domeinen)
-IDOR (manipuleren van input values)
-Insufficient Logging &amp; Monitoring (malicious activities go unnoticed)
-Excessive Data Exposure (data meegeven die onnodig is)
-trusting (manipulated) client-side data</t>
   </si>
   <si>
     <t>API Authentication</t>
@@ -177,6 +164,29 @@
     <t>Basic auth, telkens versturen van user &amp; pass in base64
  token/session,  inloggen -&gt; random token aanmaken -&gt; store in DB, request -&gt; check token in DB
 JWT Token, bevat user info -&gt; base64 format, geen encryptie dus geen gevoelige data opslaan</t>
+  </si>
+  <si>
+    <t>V - XSS - Cross-Site Scripting, zeker bespreken
+V - CSRF - Cross-Site Request Forgery, zeker bespreken
+M - Injection Flaws (SQL, cmd, query), misschien bespreken
+X BOLA (Broken Object Level Authorization), niet bespreken
+X - DDoS attacks, niet bespreken
+EX - Lack of  Rate Limiting, niet bespreken, wel extra onderzoeken
+X - Broken Authentication, niet bespreken
+EX - Misconfigured CORS (verkeerd ingestelde config ivm domeinen), niet bespreken, wel extra onderzoeken
+M - IDOR (manipuleren van input values), misschien bespreken past bij tursting client-side data
+EX - Insufficient Logging &amp; Monitoring (malicious activities go unnoticed), niet bespreken, wel extra onderzoeken
+M - Excessive Data Exposure (data meegeven die onnodig is), misschien bespreken
+M - trusting (manipulated) client-side data, misschien bespreken</t>
+  </si>
+  <si>
+    <t>Verschillende security probelemen die betrekking hebben met elkaar, gaan vergelijken.</t>
+  </si>
+  <si>
+    <t>Injection Flaws vs IDOR vs trusting client data</t>
+  </si>
+  <si>
+    <t>Van toepassing voor beveiliging van XSS &amp; CSRF</t>
   </si>
 </sst>
 </file>
@@ -633,27 +643,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B59746C-283F-4A2C-85E0-EFA8BF3CE917}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="58.140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="88.5703125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="70.109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="88.5546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -685,7 +695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="177.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -699,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>6</v>
@@ -714,7 +724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -728,7 +738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -748,9 +758,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5">
         <v>45954</v>
@@ -759,30 +769,30 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="B6" s="5">
         <v>45954</v>
@@ -791,27 +801,27 @@
         <v>0.74652777777777779</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="11" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="B7" s="5">
         <v>45973</v>
@@ -820,18 +830,29 @@
         <v>0.52430555555555558</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="17" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>37</v>
+      <c r="D9" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Official/Logboek GDC.xlsx
+++ b/docs/Official/Logboek GDC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GDC-Ian-2025-2026\docs\Official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\GDC-Ian-2025-2026\docs\Official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B4392E-FA59-4016-9BC5-BDCD0415DA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B302B8D-7F9D-4D1D-82A0-24E179252516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{436E9E8A-65C9-4475-9C60-C188DFBA05A4}"/>
+    <workbookView xWindow="-28920" yWindow="5175" windowWidth="29040" windowHeight="15720" xr2:uid="{436E9E8A-65C9-4475-9C60-C188DFBA05A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Datum:</t>
   </si>
@@ -166,10 +166,25 @@
 JWT Token, bevat user info -&gt; base64 format, geen encryptie dus geen gevoelige data opslaan</t>
   </si>
   <si>
+    <t>Verschillende security probelemen die betrekking hebben met elkaar, gaan vergelijken.</t>
+  </si>
+  <si>
+    <t>Injection Flaws vs IDOR vs trusting client data</t>
+  </si>
+  <si>
+    <t>Van toepassing voor beveiliging van XSS &amp; CSRF</t>
+  </si>
+  <si>
+    <t>XSS in detail</t>
+  </si>
+  <si>
+    <t>CSRF in detail</t>
+  </si>
+  <si>
     <t>V - XSS - Cross-Site Scripting, zeker bespreken
 V - CSRF - Cross-Site Request Forgery, zeker bespreken
 M - Injection Flaws (SQL, cmd, query), misschien bespreken
-X BOLA (Broken Object Level Authorization), niet bespreken
+X - BOLA (Broken Object Level Authorization), niet bespreken
 X - DDoS attacks, niet bespreken
 EX - Lack of  Rate Limiting, niet bespreken, wel extra onderzoeken
 X - Broken Authentication, niet bespreken
@@ -178,15 +193,6 @@
 EX - Insufficient Logging &amp; Monitoring (malicious activities go unnoticed), niet bespreken, wel extra onderzoeken
 M - Excessive Data Exposure (data meegeven die onnodig is), misschien bespreken
 M - trusting (manipulated) client-side data, misschien bespreken</t>
-  </si>
-  <si>
-    <t>Verschillende security probelemen die betrekking hebben met elkaar, gaan vergelijken.</t>
-  </si>
-  <si>
-    <t>Injection Flaws vs IDOR vs trusting client data</t>
-  </si>
-  <si>
-    <t>Van toepassing voor beveiliging van XSS &amp; CSRF</t>
   </si>
 </sst>
 </file>
@@ -643,27 +649,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B59746C-283F-4A2C-85E0-EFA8BF3CE917}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="70.109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="88.5546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="43.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="88.5703125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -695,7 +701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="177.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="177.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -709,7 +715,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>6</v>
@@ -724,7 +730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -738,7 +744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -758,7 +764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -790,7 +796,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -819,7 +825,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -839,20 +845,30 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Official/Logboek GDC.xlsx
+++ b/docs/Official/Logboek GDC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\GDC-Ian-2025-2026\docs\Official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B302B8D-7F9D-4D1D-82A0-24E179252516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09277880-30BF-48D3-ACA1-EC3B5BD1F227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5175" windowWidth="29040" windowHeight="15720" xr2:uid="{436E9E8A-65C9-4475-9C60-C188DFBA05A4}"/>
   </bookViews>
@@ -652,7 +652,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,6 +848,12 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45986</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.84444444444444444</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>40</v>

--- a/docs/Official/Logboek GDC.xlsx
+++ b/docs/Official/Logboek GDC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\GDC-Ian-2025-2026\docs\Official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09277880-30BF-48D3-ACA1-EC3B5BD1F227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB330C2-67D9-4F9D-ADD1-7DCEAD5DFA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5175" windowWidth="29040" windowHeight="15720" xr2:uid="{436E9E8A-65C9-4475-9C60-C188DFBA05A4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>Datum:</t>
   </si>
@@ -173,12 +173,6 @@
   </si>
   <si>
     <t>Van toepassing voor beveiliging van XSS &amp; CSRF</t>
-  </si>
-  <si>
-    <t>XSS in detail</t>
-  </si>
-  <si>
-    <t>CSRF in detail</t>
   </si>
   <si>
     <t>V - XSS - Cross-Site Scripting, zeker bespreken
@@ -193,6 +187,57 @@
 EX - Insufficient Logging &amp; Monitoring (malicious activities go unnoticed), niet bespreken, wel extra onderzoeken
 M - Excessive Data Exposure (data meegeven die onnodig is), misschien bespreken
 M - trusting (manipulated) client-side data, misschien bespreken</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EoaDgUgS6QA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z4LhLJnmoZ0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PKgw0CLZIhE&amp;t=20s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m-0p2BFAZvI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ej2O4lOUzRc</t>
+  </si>
+  <si>
+    <t>https://portswigger.net/web-security/cross-site-scripting</t>
+  </si>
+  <si>
+    <t>https://owasp.org/www-community/attacks/xss/</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Cross-site_scripting</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/Security/Attacks/XSS</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/ethical-hacking/what-is-cross-site-scripting-xss/</t>
+  </si>
+  <si>
+    <t>https://www.cloudflare.com/learning/security/threats/cross-site-scripting/</t>
+  </si>
+  <si>
+    <t>XSS Specifiek bij API's</t>
+  </si>
+  <si>
+    <t>CSP header</t>
+  </si>
+  <si>
+    <t>3 verschillende soorten XSS</t>
+  </si>
+  <si>
+    <t>XSS algemeen in detail</t>
+  </si>
+  <si>
+    <t>CSRF algemeen in detail</t>
+  </si>
+  <si>
+    <t>CSRF Spefifiek bij API's</t>
   </si>
 </sst>
 </file>
@@ -263,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -314,6 +359,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -649,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B59746C-283F-4A2C-85E0-EFA8BF3CE917}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,9 +713,10 @@
     <col min="8" max="8" width="15.7109375" style="13" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" style="13" customWidth="1"/>
     <col min="10" max="10" width="23.42578125" style="13" customWidth="1"/>
+    <col min="11" max="19" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -700,8 +747,35 @@
       <c r="J1" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="177.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="177.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -715,7 +789,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>6</v>
@@ -730,7 +804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -744,7 +818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -764,7 +838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -796,7 +870,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -825,7 +899,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -845,7 +919,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
@@ -859,22 +933,90 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5">
+        <v>46010</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.60763888888888884</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>44</v>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -896,8 +1038,19 @@
     <hyperlink ref="I6" r:id="rId15" xr:uid="{71631EA3-09D0-4D5A-82FA-58219DE802F9}"/>
     <hyperlink ref="F7" r:id="rId16" xr:uid="{A8179F7F-A0B4-4264-A2DC-15B44AEF929A}"/>
     <hyperlink ref="J5" r:id="rId17" xr:uid="{F2854C7E-F7A3-4D1B-ACAA-14B7C586B7EF}"/>
+    <hyperlink ref="F9" r:id="rId18" xr:uid="{98ED6B34-E655-415C-9BA4-3159DB7C9664}"/>
+    <hyperlink ref="G9" r:id="rId19" xr:uid="{5442341A-5781-4177-8C1D-61064B8BD40D}"/>
+    <hyperlink ref="H9" r:id="rId20" xr:uid="{4F1122E6-5460-4865-A5D6-68B0238E1859}"/>
+    <hyperlink ref="I9" r:id="rId21" xr:uid="{A14507CB-0B09-43EB-B80F-41BD41F2F480}"/>
+    <hyperlink ref="J9" r:id="rId22" xr:uid="{1F70A6CF-BB55-469B-B72C-89906F5DD2CC}"/>
+    <hyperlink ref="K9" r:id="rId23" xr:uid="{EB7F5E85-1714-4C77-9A35-62147343D936}"/>
+    <hyperlink ref="L9" r:id="rId24" xr:uid="{EA7DB39A-64E5-4B5E-802B-AD32AF5ACF95}"/>
+    <hyperlink ref="M9" r:id="rId25" xr:uid="{C80DCA23-7CDE-4FAF-AFF3-F5287FD262F9}"/>
+    <hyperlink ref="N9" r:id="rId26" xr:uid="{F6784396-0A11-4D49-862B-0AF3D3AC9BF5}"/>
+    <hyperlink ref="O9" r:id="rId27" xr:uid="{57DA929D-ECFB-415B-838B-1FAE7F8360F1}"/>
+    <hyperlink ref="P9" r:id="rId28" xr:uid="{CBCFED1F-49D4-46D7-945D-9B81BDF21811}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/docs/Official/Logboek GDC.xlsx
+++ b/docs/Official/Logboek GDC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\GDC-Ian-2025-2026\docs\Official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB330C2-67D9-4F9D-ADD1-7DCEAD5DFA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CB6DCC-A3B2-4049-A86F-5DCBD1C3DD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5175" windowWidth="29040" windowHeight="15720" xr2:uid="{436E9E8A-65C9-4475-9C60-C188DFBA05A4}"/>
+    <workbookView xWindow="-28800" yWindow="5490" windowWidth="28800" windowHeight="15390" xr2:uid="{436E9E8A-65C9-4475-9C60-C188DFBA05A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B59746C-283F-4A2C-85E0-EFA8BF3CE917}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/Official/Logboek GDC.xlsx
+++ b/docs/Official/Logboek GDC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\GDC-Ian-2025-2026\docs\Official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CB6DCC-A3B2-4049-A86F-5DCBD1C3DD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E77058-FB90-4440-9EB7-23BEF84C436D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="5490" windowWidth="28800" windowHeight="15390" xr2:uid="{436E9E8A-65C9-4475-9C60-C188DFBA05A4}"/>
+    <workbookView xWindow="38400" yWindow="7770" windowWidth="28800" windowHeight="15390" xr2:uid="{436E9E8A-65C9-4475-9C60-C188DFBA05A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <t>Datum:</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>CSRF Spefifiek bij API's</t>
+  </si>
+  <si>
+    <t>zie GDC</t>
   </si>
 </sst>
 </file>
@@ -697,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B59746C-283F-4A2C-85E0-EFA8BF3CE917}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,6 +949,9 @@
       <c r="D9" s="9" t="s">
         <v>57</v>
       </c>
+      <c r="E9" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F9" s="17" t="s">
         <v>44</v>
       </c>
@@ -983,6 +989,12 @@
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>59</v>
+      </c>
+      <c r="B10" s="5">
+        <v>46017</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.625</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">

--- a/docs/Official/Logboek GDC.xlsx
+++ b/docs/Official/Logboek GDC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\GDC-Ian-2025-2026\docs\Official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E77058-FB90-4440-9EB7-23BEF84C436D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68803F7D-ACFB-4B39-8806-A7DFCBD54B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="7770" windowWidth="28800" windowHeight="15390" xr2:uid="{436E9E8A-65C9-4475-9C60-C188DFBA05A4}"/>
+    <workbookView xWindow="38280" yWindow="7560" windowWidth="29040" windowHeight="15720" xr2:uid="{436E9E8A-65C9-4475-9C60-C188DFBA05A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>Datum:</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>zie GDC</t>
+  </si>
+  <si>
+    <t>CORS</t>
   </si>
 </sst>
 </file>
@@ -698,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B59746C-283F-4A2C-85E0-EFA8BF3CE917}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,35 +1002,46 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>42</v>
+        <v>62</v>
+      </c>
+      <c r="B11" s="5">
+        <v>46018</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
+        <v>36</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>60</v>
       </c>
     </row>

--- a/docs/Official/Logboek GDC.xlsx
+++ b/docs/Official/Logboek GDC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\GDC-Ian-2025-2026\docs\Official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68803F7D-ACFB-4B39-8806-A7DFCBD54B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0BDB72-159A-42DE-8B8B-803482BE0F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="7560" windowWidth="29040" windowHeight="15720" xr2:uid="{436E9E8A-65C9-4475-9C60-C188DFBA05A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{436E9E8A-65C9-4475-9C60-C188DFBA05A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>Datum:</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=vTroMvQy6K0</t>
-  </si>
-  <si>
-    <t>HSTS (HTTP Strict Transport Security)</t>
   </si>
   <si>
     <t>token in local storage -&gt; elke JS script kan aan die storage &amp; token
@@ -170,9 +167,6 @@
   </si>
   <si>
     <t>Injection Flaws vs IDOR vs trusting client data</t>
-  </si>
-  <si>
-    <t>Van toepassing voor beveiliging van XSS &amp; CSRF</t>
   </si>
   <si>
     <t>V - XSS - Cross-Site Scripting, zeker bespreken
@@ -222,12 +216,6 @@
     <t>https://www.cloudflare.com/learning/security/threats/cross-site-scripting/</t>
   </si>
   <si>
-    <t>XSS Specifiek bij API's</t>
-  </si>
-  <si>
-    <t>CSP header</t>
-  </si>
-  <si>
     <t>3 verschillende soorten XSS</t>
   </si>
   <si>
@@ -237,13 +225,41 @@
     <t>CSRF algemeen in detail</t>
   </si>
   <si>
-    <t>CSRF Spefifiek bij API's</t>
-  </si>
-  <si>
     <t>zie GDC</t>
   </si>
   <si>
     <t>CORS</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4bQeGUzHpOE</t>
+  </si>
+  <si>
+    <t>setting voor SOP</t>
+  </si>
+  <si>
+    <t>versturen van ongewenste verzoeken, omzijlt CORS wegens server-side actie en geen client-side actie</t>
+  </si>
+  <si>
+    <t>meegeven welke site wel toegang mag hebben tot api data, browser site beveiliging</t>
+  </si>
+  <si>
+    <t>kleine regels die server mee geeft aan de browser, hoe de data veilig moet verwerkt worden
+wat de browser wel en niet mag doen met de data 
+Van toepassing voor beveiliging van XSS &amp; CSRF &amp; API</t>
+  </si>
+  <si>
+    <t>HTTP Header Settings</t>
+  </si>
+  <si>
+    <t>CSP, whitelist voor het laden van scripts &amp; bestanden, lijst met welke zaken er vertrouwd mogen werken
+- enkel deze zaken inladen &amp; bepaalde tags blokkeren
+HSTS, communicatie over HTTPS verplichten ipv HTTP
+Content Type nosniff, prevent tegen MIME sniffing, luistern naar server niet raden door te sniffen
+Referrer Policy, extra opzoek werk doen, geeft geen extra tags mee als het cross origin is
+CORS, toestaan van cross origin request en limiteren</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fFHl7psnvz0</t>
   </si>
 </sst>
 </file>
@@ -314,7 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -366,6 +382,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -701,19 +720,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B59746C-283F-4A2C-85E0-EFA8BF3CE917}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="42.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="88.5703125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="90.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="97.7109375" style="13" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" style="16" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" style="13" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" style="13" customWidth="1"/>
@@ -795,7 +814,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>6</v>
@@ -858,7 +877,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>23</v>
@@ -873,7 +892,7 @@
         <v>28</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -919,7 +938,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>35</v>
@@ -927,7 +946,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5">
         <v>45986</v>
@@ -936,12 +955,12 @@
         <v>0.84444444444444444</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B9" s="5">
         <v>46010</v>
@@ -950,48 +969,48 @@
         <v>0.60763888888888884</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F9" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="K9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="L9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="M9" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="N9" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="O9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="P9" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" s="18" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5">
         <v>46017</v>
@@ -999,10 +1018,16 @@
       <c r="C10" s="7">
         <v>0.625</v>
       </c>
+      <c r="D10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B11" s="5">
         <v>46018</v>
@@ -1010,19 +1035,37 @@
       <c r="C11" s="7">
         <v>0.9375</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>42</v>
+        <v>63</v>
+      </c>
+      <c r="B12" s="5">
+        <v>46019</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F13" s="17"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -1034,16 +1077,6 @@
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
       <c r="P13" s="18"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>60</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1075,8 +1108,10 @@
     <hyperlink ref="N9" r:id="rId26" xr:uid="{F6784396-0A11-4D49-862B-0AF3D3AC9BF5}"/>
     <hyperlink ref="O9" r:id="rId27" xr:uid="{57DA929D-ECFB-415B-838B-1FAE7F8360F1}"/>
     <hyperlink ref="P9" r:id="rId28" xr:uid="{CBCFED1F-49D4-46D7-945D-9B81BDF21811}"/>
+    <hyperlink ref="G12" r:id="rId29" xr:uid="{FF9D4F01-3966-4BE6-ABF2-6EDC8A58A730}"/>
+    <hyperlink ref="F12" r:id="rId30" xr:uid="{1E46E5FD-FC9B-4AFE-9021-5686FCC59D07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
--- a/docs/Official/Logboek GDC.xlsx
+++ b/docs/Official/Logboek GDC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\GDC-Ian-2025-2026\docs\Official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0BDB72-159A-42DE-8B8B-803482BE0F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD4A661-3773-4FCB-8C27-93176D28D05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{436E9E8A-65C9-4475-9C60-C188DFBA05A4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
   <si>
     <t>Datum:</t>
   </si>
@@ -260,6 +260,14 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=fFHl7psnvz0</t>
+  </si>
+  <si>
+    <t>Cookies</t>
+  </si>
+  <si>
+    <t>httponly
+samesite &amp; Cross Site
+secure</t>
   </si>
 </sst>
 </file>
@@ -723,7 +731,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,7 +1073,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="F13" s="17"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
